--- a/トータルコンサル/トータルコンサル管理簿.xlsx
+++ b/トータルコンサル/トータルコンサル管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\トータルコンサル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F3166-3C8B-4273-9472-F0987565ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F07AC6F-D6AA-4466-8F30-9A071277D031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル性" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,21 +665,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2116,20 +2101,20 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" customWidth="1"/>
-    <col min="8" max="11" width="15.08203125" customWidth="1"/>
-    <col min="12" max="12" width="44.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2282,38 +2267,38 @@
       <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.08203125" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -2430,7 +2415,7 @@
       <c r="F2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
       <c r="H2" s="14">
@@ -2495,87 +2480,87 @@
       <c r="AE2" s="16"/>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="20" t="str">
+      <c r="B3" s="13" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>河原林　一功</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="14">
         <v>45046</v>
       </c>
       <c r="D3" s="15">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+1,DAY($C3)))</f>
         <v>45076</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="21">
+      <c r="I3" s="16"/>
+      <c r="J3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+2,DAY($C3)))</f>
         <v>45107</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="21">
+      <c r="K3" s="16"/>
+      <c r="L3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+3,DAY($C3)))</f>
         <v>45137</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="21">
+      <c r="M3" s="16"/>
+      <c r="N3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+4,DAY($C3)))</f>
         <v>45168</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="21">
+      <c r="O3" s="16"/>
+      <c r="P3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+5,DAY($C3)))</f>
         <v>45199</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="21">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+6,DAY($C3)))</f>
         <v>45229</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="21">
+      <c r="S3" s="16"/>
+      <c r="T3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+7,DAY($C3)))</f>
         <v>45260</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="21">
+      <c r="U3" s="16"/>
+      <c r="V3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+8,DAY($C3)))</f>
         <v>45290</v>
       </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="21">
+      <c r="W3" s="16"/>
+      <c r="X3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+9,DAY($C3)))</f>
         <v>45321</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="21">
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+10,DAY($C3)))</f>
         <v>45352</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="21">
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+11,DAY($C3)))</f>
         <v>45381</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="21">
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="14">
         <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+12,DAY($C3)))</f>
         <v>45412</v>
       </c>
-      <c r="AE3" s="24"/>
+      <c r="AE3" s="16"/>
     </row>
-    <row r="4" spans="1:31" ht="54">
+    <row r="4" spans="1:31" ht="56.25">
       <c r="A4" s="12" t="s">
         <v>40</v>
       </c>
@@ -2593,10 +2578,10 @@
       <c r="E4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="21" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="14">
